--- a/Historical data/M&M.xlsx
+++ b/Historical data/M&M.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,139 +26,22 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="major"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF9C5700"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <color rgb="00FF0000"/>
     </font>
     <font>
       <color rgb="000000FF"/>
     </font>
-    <font>
-      <color rgb="00FF0000"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -166,176 +49,18 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+      <patternFill>
+        <bgColor rgb="FFD9D9F3"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+      <patternFill>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
+      <patternFill>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -343,13 +68,8 @@
         <bgColor rgb="00D9D9F3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -357,209 +77,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.3999755851924192"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19"/>
-    <cellStyle name="Good" xfId="6" builtinId="26"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28"/>
-    <cellStyle name="Input" xfId="9" builtinId="20"/>
-    <cellStyle name="Output" xfId="10" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="Note" xfId="15" builtinId="10"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53"/>
-    <cellStyle name="Total" xfId="17" builtinId="25"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -934,13 +467,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S126"/>
+  <dimension ref="A1:AL126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.44140625" bestFit="1" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1015,7 +552,7 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>OPEN-CLOSE</t>
+          <t>CLOSE-OPEN</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -1030,7 +567,7 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>CLOSE-CLOSE</t>
+          <t>TCLOSE-PCLOSE</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
@@ -1084,8 +621,8 @@
       <c r="N2" s="3" t="n">
         <v>8738</v>
       </c>
-      <c r="O2" t="n">
-        <v>17.90000000000009</v>
+      <c r="O2" s="6" t="n">
+        <v>-17.90000000000009</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1093,12 +630,17 @@
       <c r="Q2" t="n">
         <v>-21</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="7" t="n">
         <v>-12.85000000000014</v>
       </c>
       <c r="S2" t="n">
         <v>21</v>
       </c>
+      <c r="T2" s="6" t="n"/>
+      <c r="W2" s="7" t="n"/>
+      <c r="AB2" s="4" t="n"/>
+      <c r="AG2" s="4" t="n"/>
+      <c r="AL2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1145,8 +687,8 @@
       <c r="N3" s="3" t="n">
         <v>214057</v>
       </c>
-      <c r="O3" s="5" t="n">
-        <v>-39.35000000000014</v>
+      <c r="O3" t="n">
+        <v>39.35000000000014</v>
       </c>
       <c r="P3" t="n">
         <v>48.70000000000005</v>
@@ -1160,6 +702,9 @@
       <c r="S3" t="n">
         <v>51.79999999999995</v>
       </c>
+      <c r="Y3" s="5" t="n"/>
+      <c r="AD3" s="5" t="n"/>
+      <c r="AI3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1206,8 +751,8 @@
       <c r="N4" s="3" t="n">
         <v>203880</v>
       </c>
-      <c r="O4" s="5" t="n">
-        <v>-29.55000000000018</v>
+      <c r="O4" t="n">
+        <v>29.55000000000018</v>
       </c>
       <c r="P4" t="n">
         <v>48.05000000000018</v>
@@ -1221,6 +766,9 @@
       <c r="S4" t="n">
         <v>58.35000000000014</v>
       </c>
+      <c r="Y4" s="5" t="n"/>
+      <c r="AD4" s="5" t="n"/>
+      <c r="AI4" s="5" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1267,8 +815,8 @@
       <c r="N5" s="3" t="n">
         <v>115877</v>
       </c>
-      <c r="O5" t="n">
-        <v>50.29999999999995</v>
+      <c r="O5" s="6" t="n">
+        <v>-50.29999999999995</v>
       </c>
       <c r="P5" t="n">
         <v>1.200000000000045</v>
@@ -1276,12 +824,17 @@
       <c r="Q5" t="n">
         <v>-54.90000000000009</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="R5" s="7" t="n">
         <v>-48.94999999999982</v>
       </c>
       <c r="S5" t="n">
         <v>56.10000000000014</v>
       </c>
+      <c r="T5" s="6" t="n"/>
+      <c r="W5" s="7" t="n"/>
+      <c r="AB5" s="4" t="n"/>
+      <c r="AG5" s="4" t="n"/>
+      <c r="AL5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1328,8 +881,8 @@
       <c r="N6" s="3" t="n">
         <v>115924</v>
       </c>
-      <c r="O6" s="5" t="n">
-        <v>-24.59999999999991</v>
+      <c r="O6" t="n">
+        <v>24.59999999999991</v>
       </c>
       <c r="P6" t="n">
         <v>30.95000000000005</v>
@@ -1343,6 +896,9 @@
       <c r="S6" t="n">
         <v>41.90000000000009</v>
       </c>
+      <c r="Y6" s="5" t="n"/>
+      <c r="AD6" s="5" t="n"/>
+      <c r="AI6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1389,8 +945,8 @@
       <c r="N7" s="3" t="n">
         <v>97255</v>
       </c>
-      <c r="O7" t="n">
-        <v>5.200000000000045</v>
+      <c r="O7" s="6" t="n">
+        <v>-5.200000000000045</v>
       </c>
       <c r="P7" t="n">
         <v>16</v>
@@ -1398,12 +954,17 @@
       <c r="Q7" t="n">
         <v>-9.799999999999955</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="7" t="n">
         <v>-0.1500000000000909</v>
       </c>
       <c r="S7" t="n">
         <v>25.79999999999995</v>
       </c>
+      <c r="T7" s="6" t="n"/>
+      <c r="W7" s="7" t="n"/>
+      <c r="AB7" s="4" t="n"/>
+      <c r="AG7" s="4" t="n"/>
+      <c r="AL7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1450,8 +1011,8 @@
       <c r="N8" s="3" t="n">
         <v>127112</v>
       </c>
-      <c r="O8" s="5" t="n">
-        <v>-3.600000000000136</v>
+      <c r="O8" t="n">
+        <v>3.600000000000136</v>
       </c>
       <c r="P8" t="n">
         <v>21.5</v>
@@ -1465,6 +1026,9 @@
       <c r="S8" t="n">
         <v>46.75</v>
       </c>
+      <c r="Y8" s="5" t="n"/>
+      <c r="AD8" s="5" t="n"/>
+      <c r="AI8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1511,8 +1075,8 @@
       <c r="N9" s="3" t="n">
         <v>175607</v>
       </c>
-      <c r="O9" s="5" t="n">
-        <v>-39.39999999999986</v>
+      <c r="O9" t="n">
+        <v>39.39999999999986</v>
       </c>
       <c r="P9" t="n">
         <v>46.04999999999995</v>
@@ -1526,6 +1090,9 @@
       <c r="S9" t="n">
         <v>64</v>
       </c>
+      <c r="Y9" s="5" t="n"/>
+      <c r="AD9" s="5" t="n"/>
+      <c r="AI9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1572,8 +1139,8 @@
       <c r="N10" s="3" t="n">
         <v>158000</v>
       </c>
-      <c r="O10" s="5" t="n">
-        <v>-9.75</v>
+      <c r="O10" t="n">
+        <v>9.75</v>
       </c>
       <c r="P10" t="n">
         <v>39.79999999999995</v>
@@ -1587,6 +1154,9 @@
       <c r="S10" t="n">
         <v>43</v>
       </c>
+      <c r="Y10" s="5" t="n"/>
+      <c r="AD10" s="5" t="n"/>
+      <c r="AI10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1633,8 +1203,8 @@
       <c r="N11" s="3" t="n">
         <v>105235</v>
       </c>
-      <c r="O11" s="5" t="n">
-        <v>-16.25</v>
+      <c r="O11" t="n">
+        <v>16.25</v>
       </c>
       <c r="P11" t="n">
         <v>22.59999999999991</v>
@@ -1648,6 +1218,9 @@
       <c r="S11" t="n">
         <v>39.5</v>
       </c>
+      <c r="Y11" s="5" t="n"/>
+      <c r="AD11" s="5" t="n"/>
+      <c r="AI11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1694,8 +1267,8 @@
       <c r="N12" s="3" t="n">
         <v>112120</v>
       </c>
-      <c r="O12" s="5" t="n">
-        <v>-12.5</v>
+      <c r="O12" t="n">
+        <v>12.5</v>
       </c>
       <c r="P12" t="n">
         <v>20.40000000000009</v>
@@ -1709,6 +1282,9 @@
       <c r="S12" t="n">
         <v>36.45000000000005</v>
       </c>
+      <c r="Y12" s="5" t="n"/>
+      <c r="AD12" s="5" t="n"/>
+      <c r="AI12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1755,8 +1331,8 @@
       <c r="N13" s="3" t="n">
         <v>316154</v>
       </c>
-      <c r="O13" s="5" t="n">
-        <v>-47.54999999999995</v>
+      <c r="O13" t="n">
+        <v>47.54999999999995</v>
       </c>
       <c r="P13" t="n">
         <v>76.65000000000009</v>
@@ -1770,6 +1346,9 @@
       <c r="S13" t="n">
         <v>87.80000000000018</v>
       </c>
+      <c r="Y13" s="5" t="n"/>
+      <c r="AD13" s="5" t="n"/>
+      <c r="AI13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1816,8 +1395,8 @@
       <c r="N14" s="3" t="n">
         <v>365256</v>
       </c>
-      <c r="O14" s="5" t="n">
-        <v>-84</v>
+      <c r="O14" t="n">
+        <v>84</v>
       </c>
       <c r="P14" t="n">
         <v>103.8500000000001</v>
@@ -1831,6 +1410,9 @@
       <c r="S14" t="n">
         <v>116.8000000000002</v>
       </c>
+      <c r="Y14" s="5" t="n"/>
+      <c r="AD14" s="5" t="n"/>
+      <c r="AI14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1877,8 +1459,8 @@
       <c r="N15" s="3" t="n">
         <v>184976</v>
       </c>
-      <c r="O15" s="5" t="n">
-        <v>-26.04999999999995</v>
+      <c r="O15" t="n">
+        <v>26.04999999999995</v>
       </c>
       <c r="P15" t="n">
         <v>48.65000000000009</v>
@@ -1892,6 +1474,9 @@
       <c r="S15" t="n">
         <v>55.75</v>
       </c>
+      <c r="Y15" s="5" t="n"/>
+      <c r="AD15" s="5" t="n"/>
+      <c r="AI15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1938,8 +1523,8 @@
       <c r="N16" s="3" t="n">
         <v>111100</v>
       </c>
-      <c r="O16" t="n">
-        <v>23.25</v>
+      <c r="O16" s="6" t="n">
+        <v>-23.25</v>
       </c>
       <c r="P16" t="n">
         <v>9.400000000000091</v>
@@ -1947,12 +1532,17 @@
       <c r="Q16" t="n">
         <v>-46.54999999999995</v>
       </c>
-      <c r="R16" s="4" t="n">
+      <c r="R16" s="7" t="n">
         <v>-13.70000000000005</v>
       </c>
       <c r="S16" t="n">
         <v>55.95000000000005</v>
       </c>
+      <c r="T16" s="6" t="n"/>
+      <c r="W16" s="7" t="n"/>
+      <c r="AB16" s="4" t="n"/>
+      <c r="AG16" s="4" t="n"/>
+      <c r="AL16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1999,8 +1589,8 @@
       <c r="N17" s="3" t="n">
         <v>95274</v>
       </c>
-      <c r="O17" s="5" t="n">
-        <v>-6.450000000000045</v>
+      <c r="O17" t="n">
+        <v>6.450000000000045</v>
       </c>
       <c r="P17" t="n">
         <v>21.04999999999995</v>
@@ -2014,6 +1604,9 @@
       <c r="S17" t="n">
         <v>34.5</v>
       </c>
+      <c r="Y17" s="5" t="n"/>
+      <c r="AD17" s="5" t="n"/>
+      <c r="AI17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2060,8 +1653,8 @@
       <c r="N18" s="3" t="n">
         <v>145064</v>
       </c>
-      <c r="O18" t="n">
-        <v>39.59999999999991</v>
+      <c r="O18" s="6" t="n">
+        <v>-39.59999999999991</v>
       </c>
       <c r="P18" t="n">
         <v>3.75</v>
@@ -2069,12 +1662,17 @@
       <c r="Q18" t="n">
         <v>-58</v>
       </c>
-      <c r="R18" s="4" t="n">
+      <c r="R18" s="7" t="n">
         <v>-39.5</v>
       </c>
       <c r="S18" t="n">
         <v>61.75</v>
       </c>
+      <c r="T18" s="6" t="n"/>
+      <c r="W18" s="7" t="n"/>
+      <c r="AB18" s="4" t="n"/>
+      <c r="AG18" s="4" t="n"/>
+      <c r="AL18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2121,8 +1719,8 @@
       <c r="N19" s="3" t="n">
         <v>145744</v>
       </c>
-      <c r="O19" t="n">
-        <v>43.09999999999991</v>
+      <c r="O19" s="6" t="n">
+        <v>-43.09999999999991</v>
       </c>
       <c r="P19" t="n">
         <v>14.90000000000009</v>
@@ -2130,12 +1728,17 @@
       <c r="Q19" t="n">
         <v>-53.45000000000005</v>
       </c>
-      <c r="R19" s="4" t="n">
+      <c r="R19" s="7" t="n">
         <v>-35.09999999999991</v>
       </c>
       <c r="S19" t="n">
         <v>68.35000000000014</v>
       </c>
+      <c r="T19" s="6" t="n"/>
+      <c r="W19" s="7" t="n"/>
+      <c r="AB19" s="4" t="n"/>
+      <c r="AG19" s="4" t="n"/>
+      <c r="AL19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2182,8 +1785,8 @@
       <c r="N20" s="3" t="n">
         <v>111960</v>
       </c>
-      <c r="O20" t="n">
-        <v>10.45000000000005</v>
+      <c r="O20" s="6" t="n">
+        <v>-10.45000000000005</v>
       </c>
       <c r="P20" t="n">
         <v>20.54999999999995</v>
@@ -2191,12 +1794,17 @@
       <c r="Q20" t="n">
         <v>-15.75</v>
       </c>
-      <c r="R20" s="4" t="n">
+      <c r="R20" s="7" t="n">
         <v>-6.650000000000091</v>
       </c>
       <c r="S20" t="n">
         <v>36.29999999999995</v>
       </c>
+      <c r="T20" s="6" t="n"/>
+      <c r="W20" s="7" t="n"/>
+      <c r="AB20" s="4" t="n"/>
+      <c r="AG20" s="4" t="n"/>
+      <c r="AL20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2243,8 +1851,8 @@
       <c r="N21" s="3" t="n">
         <v>126701</v>
       </c>
-      <c r="O21" s="5" t="n">
-        <v>-16.70000000000005</v>
+      <c r="O21" t="n">
+        <v>16.70000000000005</v>
       </c>
       <c r="P21" t="n">
         <v>19.04999999999995</v>
@@ -2258,6 +1866,9 @@
       <c r="S21" t="n">
         <v>24</v>
       </c>
+      <c r="Y21" s="5" t="n"/>
+      <c r="AD21" s="5" t="n"/>
+      <c r="AI21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2304,8 +1915,8 @@
       <c r="N22" s="3" t="n">
         <v>149948</v>
       </c>
-      <c r="O22" s="5" t="n">
-        <v>-26.84999999999991</v>
+      <c r="O22" t="n">
+        <v>26.84999999999991</v>
       </c>
       <c r="P22" t="n">
         <v>36.14999999999986</v>
@@ -2319,6 +1930,9 @@
       <c r="S22" t="n">
         <v>47.75</v>
       </c>
+      <c r="Y22" s="5" t="n"/>
+      <c r="AD22" s="5" t="n"/>
+      <c r="AI22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2365,8 +1979,8 @@
       <c r="N23" s="3" t="n">
         <v>171830</v>
       </c>
-      <c r="O23" s="5" t="n">
-        <v>-5.75</v>
+      <c r="O23" t="n">
+        <v>5.75</v>
       </c>
       <c r="P23" t="n">
         <v>32.04999999999995</v>
@@ -2380,6 +1994,9 @@
       <c r="S23" t="n">
         <v>37.04999999999995</v>
       </c>
+      <c r="Y23" s="5" t="n"/>
+      <c r="AD23" s="5" t="n"/>
+      <c r="AI23" s="5" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2426,8 +2043,8 @@
       <c r="N24" s="3" t="n">
         <v>169445</v>
       </c>
-      <c r="O24" t="n">
-        <v>8.099999999999909</v>
+      <c r="O24" s="6" t="n">
+        <v>-8.099999999999909</v>
       </c>
       <c r="P24" t="n">
         <v>43.34999999999991</v>
@@ -2435,12 +2052,17 @@
       <c r="Q24" t="n">
         <v>-13.70000000000005</v>
       </c>
-      <c r="R24" s="4" t="n">
+      <c r="R24" s="7" t="n">
         <v>-0.3999999999998636</v>
       </c>
       <c r="S24" t="n">
         <v>57.04999999999995</v>
       </c>
+      <c r="T24" s="6" t="n"/>
+      <c r="W24" s="7" t="n"/>
+      <c r="AB24" s="4" t="n"/>
+      <c r="AG24" s="4" t="n"/>
+      <c r="AL24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2487,8 +2109,8 @@
       <c r="N25" s="3" t="n">
         <v>178458</v>
       </c>
-      <c r="O25" s="5" t="n">
-        <v>-36.5</v>
+      <c r="O25" t="n">
+        <v>36.5</v>
       </c>
       <c r="P25" t="n">
         <v>43.25</v>
@@ -2502,6 +2124,9 @@
       <c r="S25" t="n">
         <v>49.25</v>
       </c>
+      <c r="Y25" s="5" t="n"/>
+      <c r="AD25" s="5" t="n"/>
+      <c r="AI25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2548,8 +2173,8 @@
       <c r="N26" s="3" t="n">
         <v>130366</v>
       </c>
-      <c r="O26" t="n">
-        <v>29.60000000000014</v>
+      <c r="O26" s="6" t="n">
+        <v>-29.60000000000014</v>
       </c>
       <c r="P26" t="n">
         <v>9.549999999999955</v>
@@ -2557,12 +2182,17 @@
       <c r="Q26" t="n">
         <v>-35.5</v>
       </c>
-      <c r="R26" s="4" t="n">
+      <c r="R26" s="7" t="n">
         <v>-19.65000000000009</v>
       </c>
       <c r="S26" t="n">
         <v>45.04999999999995</v>
       </c>
+      <c r="T26" s="6" t="n"/>
+      <c r="W26" s="7" t="n"/>
+      <c r="AB26" s="4" t="n"/>
+      <c r="AG26" s="4" t="n"/>
+      <c r="AL26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2609,8 +2239,8 @@
       <c r="N27" s="3" t="n">
         <v>132824</v>
       </c>
-      <c r="O27" s="5" t="n">
-        <v>-4.5</v>
+      <c r="O27" t="n">
+        <v>4.5</v>
       </c>
       <c r="P27" t="n">
         <v>9.5</v>
@@ -2624,6 +2254,9 @@
       <c r="S27" t="n">
         <v>20</v>
       </c>
+      <c r="Y27" s="5" t="n"/>
+      <c r="AD27" s="5" t="n"/>
+      <c r="AI27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2670,8 +2303,8 @@
       <c r="N28" s="3" t="n">
         <v>144616</v>
       </c>
-      <c r="O28" s="5" t="n">
-        <v>-3.900000000000091</v>
+      <c r="O28" t="n">
+        <v>3.900000000000091</v>
       </c>
       <c r="P28" t="n">
         <v>11.15000000000009</v>
@@ -2685,6 +2318,9 @@
       <c r="S28" t="n">
         <v>38.84999999999991</v>
       </c>
+      <c r="Y28" s="5" t="n"/>
+      <c r="AD28" s="5" t="n"/>
+      <c r="AI28" s="5" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2731,8 +2367,8 @@
       <c r="N29" s="3" t="n">
         <v>171147</v>
       </c>
-      <c r="O29" s="5" t="n">
-        <v>-33.09999999999991</v>
+      <c r="O29" t="n">
+        <v>33.09999999999991</v>
       </c>
       <c r="P29" t="n">
         <v>37.29999999999995</v>
@@ -2746,6 +2382,9 @@
       <c r="S29" t="n">
         <v>57.29999999999995</v>
       </c>
+      <c r="Y29" s="5" t="n"/>
+      <c r="AD29" s="5" t="n"/>
+      <c r="AI29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2792,8 +2431,8 @@
       <c r="N30" s="3" t="n">
         <v>157662</v>
       </c>
-      <c r="O30" t="n">
-        <v>23.79999999999995</v>
+      <c r="O30" s="6" t="n">
+        <v>-23.79999999999995</v>
       </c>
       <c r="P30" t="n">
         <v>28.59999999999991</v>
@@ -2801,12 +2440,17 @@
       <c r="Q30" t="n">
         <v>-30.75</v>
       </c>
-      <c r="R30" s="4" t="n">
+      <c r="R30" s="7" t="n">
         <v>-27.09999999999991</v>
       </c>
       <c r="S30" t="n">
         <v>59.34999999999991</v>
       </c>
+      <c r="T30" s="6" t="n"/>
+      <c r="W30" s="7" t="n"/>
+      <c r="AB30" s="4" t="n"/>
+      <c r="AG30" s="4" t="n"/>
+      <c r="AL30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2853,8 +2497,8 @@
       <c r="N31" s="3" t="n">
         <v>46251</v>
       </c>
-      <c r="O31" t="n">
-        <v>38.20000000000005</v>
+      <c r="O31" s="6" t="n">
+        <v>-38.20000000000005</v>
       </c>
       <c r="P31" t="n">
         <v>13.45000000000005</v>
@@ -2862,12 +2506,17 @@
       <c r="Q31" t="n">
         <v>-44.5</v>
       </c>
-      <c r="R31" s="4" t="n">
+      <c r="R31" s="7" t="n">
         <v>-33.25</v>
       </c>
       <c r="S31" t="n">
         <v>57.95000000000005</v>
       </c>
+      <c r="T31" s="6" t="n"/>
+      <c r="W31" s="7" t="n"/>
+      <c r="AB31" s="4" t="n"/>
+      <c r="AG31" s="4" t="n"/>
+      <c r="AL31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2914,8 +2563,8 @@
       <c r="N32" s="3" t="n">
         <v>133905</v>
       </c>
-      <c r="O32" s="5" t="n">
-        <v>-30.59999999999991</v>
+      <c r="O32" t="n">
+        <v>30.59999999999991</v>
       </c>
       <c r="P32" t="n">
         <v>34.04999999999995</v>
@@ -2929,6 +2578,9 @@
       <c r="S32" t="n">
         <v>36.75</v>
       </c>
+      <c r="Y32" s="5" t="n"/>
+      <c r="AD32" s="5" t="n"/>
+      <c r="AI32" s="5" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2975,8 +2627,8 @@
       <c r="N33" s="3" t="n">
         <v>162681</v>
       </c>
-      <c r="O33" s="5" t="n">
-        <v>-17.25</v>
+      <c r="O33" t="n">
+        <v>17.25</v>
       </c>
       <c r="P33" t="n">
         <v>23.29999999999995</v>
@@ -2990,6 +2642,9 @@
       <c r="S33" t="n">
         <v>42.64999999999986</v>
       </c>
+      <c r="Y33" s="5" t="n"/>
+      <c r="AD33" s="5" t="n"/>
+      <c r="AI33" s="5" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3036,8 +2691,8 @@
       <c r="N34" s="3" t="n">
         <v>121110</v>
       </c>
-      <c r="O34" t="n">
-        <v>14.29999999999995</v>
+      <c r="O34" s="6" t="n">
+        <v>-14.29999999999995</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3045,12 +2700,17 @@
       <c r="Q34" t="n">
         <v>-21</v>
       </c>
-      <c r="R34" s="4" t="n">
+      <c r="R34" s="7" t="n">
         <v>-22.64999999999986</v>
       </c>
       <c r="S34" t="n">
         <v>24</v>
       </c>
+      <c r="T34" s="6" t="n"/>
+      <c r="W34" s="7" t="n"/>
+      <c r="AB34" s="4" t="n"/>
+      <c r="AG34" s="4" t="n"/>
+      <c r="AL34" s="4" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3097,8 +2757,8 @@
       <c r="N35" s="3" t="n">
         <v>106188</v>
       </c>
-      <c r="O35" t="n">
-        <v>17.65000000000009</v>
+      <c r="O35" s="6" t="n">
+        <v>-17.65000000000009</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -3106,12 +2766,17 @@
       <c r="Q35" t="n">
         <v>-20.45000000000005</v>
       </c>
-      <c r="R35" s="4" t="n">
+      <c r="R35" s="7" t="n">
         <v>-15.20000000000005</v>
       </c>
       <c r="S35" t="n">
         <v>22.45000000000005</v>
       </c>
+      <c r="T35" s="6" t="n"/>
+      <c r="W35" s="7" t="n"/>
+      <c r="AB35" s="4" t="n"/>
+      <c r="AG35" s="4" t="n"/>
+      <c r="AL35" s="4" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3158,8 +2823,8 @@
       <c r="N36" s="3" t="n">
         <v>90573</v>
       </c>
-      <c r="O36" s="5" t="n">
-        <v>-0.5499999999999545</v>
+      <c r="O36" t="n">
+        <v>0.5499999999999545</v>
       </c>
       <c r="P36" t="n">
         <v>5.900000000000091</v>
@@ -3173,6 +2838,9 @@
       <c r="S36" t="n">
         <v>24.80000000000018</v>
       </c>
+      <c r="Y36" s="5" t="n"/>
+      <c r="AD36" s="5" t="n"/>
+      <c r="AI36" s="5" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3219,8 +2887,8 @@
       <c r="N37" s="3" t="n">
         <v>155045</v>
       </c>
-      <c r="O37" t="n">
-        <v>5.549999999999955</v>
+      <c r="O37" s="6" t="n">
+        <v>-5.549999999999955</v>
       </c>
       <c r="P37" t="n">
         <v>3.849999999999909</v>
@@ -3228,12 +2896,17 @@
       <c r="Q37" t="n">
         <v>-28.5</v>
       </c>
-      <c r="R37" s="4" t="n">
+      <c r="R37" s="7" t="n">
         <v>-4.200000000000045</v>
       </c>
       <c r="S37" t="n">
         <v>32.34999999999991</v>
       </c>
+      <c r="T37" s="6" t="n"/>
+      <c r="W37" s="7" t="n"/>
+      <c r="AB37" s="4" t="n"/>
+      <c r="AG37" s="4" t="n"/>
+      <c r="AL37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3280,8 +2953,8 @@
       <c r="N38" s="3" t="n">
         <v>94877</v>
       </c>
-      <c r="O38" t="n">
-        <v>15.25</v>
+      <c r="O38" s="6" t="n">
+        <v>-15.25</v>
       </c>
       <c r="P38" t="n">
         <v>7.349999999999909</v>
@@ -3289,12 +2962,17 @@
       <c r="Q38" t="n">
         <v>-18.05000000000018</v>
       </c>
-      <c r="R38" s="4" t="n">
+      <c r="R38" s="7" t="n">
         <v>-4.149999999999864</v>
       </c>
       <c r="S38" t="n">
         <v>25.40000000000009</v>
       </c>
+      <c r="T38" s="6" t="n"/>
+      <c r="W38" s="7" t="n"/>
+      <c r="AB38" s="4" t="n"/>
+      <c r="AG38" s="4" t="n"/>
+      <c r="AL38" s="4" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3341,8 +3019,8 @@
       <c r="N39" s="3" t="n">
         <v>93797</v>
       </c>
-      <c r="O39" t="n">
-        <v>12.20000000000005</v>
+      <c r="O39" s="6" t="n">
+        <v>-12.20000000000005</v>
       </c>
       <c r="P39" t="n">
         <v>2.450000000000045</v>
@@ -3356,6 +3034,7 @@
       <c r="S39" t="n">
         <v>26.10000000000014</v>
       </c>
+      <c r="T39" s="6" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3402,8 +3081,8 @@
       <c r="N40" s="3" t="n">
         <v>120247</v>
       </c>
-      <c r="O40" s="5" t="n">
-        <v>-4.900000000000091</v>
+      <c r="O40" t="n">
+        <v>4.900000000000091</v>
       </c>
       <c r="P40" t="n">
         <v>11.79999999999995</v>
@@ -3417,6 +3096,9 @@
       <c r="S40" t="n">
         <v>21.79999999999995</v>
       </c>
+      <c r="Y40" s="5" t="n"/>
+      <c r="AD40" s="5" t="n"/>
+      <c r="AI40" s="5" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3463,8 +3145,8 @@
       <c r="N41" s="3" t="n">
         <v>131119</v>
       </c>
-      <c r="O41" t="n">
-        <v>32</v>
+      <c r="O41" s="6" t="n">
+        <v>-32</v>
       </c>
       <c r="P41" t="n">
         <v>5.25</v>
@@ -3472,12 +3154,17 @@
       <c r="Q41" t="n">
         <v>-42.05000000000018</v>
       </c>
-      <c r="R41" s="4" t="n">
+      <c r="R41" s="7" t="n">
         <v>-25.84999999999991</v>
       </c>
       <c r="S41" t="n">
         <v>47.30000000000018</v>
       </c>
+      <c r="T41" s="6" t="n"/>
+      <c r="W41" s="7" t="n"/>
+      <c r="AB41" s="4" t="n"/>
+      <c r="AG41" s="4" t="n"/>
+      <c r="AL41" s="4" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3524,8 +3211,8 @@
       <c r="N42" s="3" t="n">
         <v>125534</v>
       </c>
-      <c r="O42" t="n">
-        <v>5.950000000000045</v>
+      <c r="O42" s="6" t="n">
+        <v>-5.950000000000045</v>
       </c>
       <c r="P42" t="n">
         <v>13.54999999999995</v>
@@ -3539,6 +3226,7 @@
       <c r="S42" t="n">
         <v>25</v>
       </c>
+      <c r="T42" s="6" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3585,8 +3273,8 @@
       <c r="N43" s="3" t="n">
         <v>147068</v>
       </c>
-      <c r="O43" t="n">
-        <v>25.20000000000005</v>
+      <c r="O43" s="6" t="n">
+        <v>-25.20000000000005</v>
       </c>
       <c r="P43" t="n">
         <v>7.549999999999955</v>
@@ -3594,12 +3282,17 @@
       <c r="Q43" t="n">
         <v>-28.70000000000005</v>
       </c>
-      <c r="R43" s="4" t="n">
+      <c r="R43" s="7" t="n">
         <v>-13.54999999999995</v>
       </c>
       <c r="S43" t="n">
         <v>36.25</v>
       </c>
+      <c r="T43" s="6" t="n"/>
+      <c r="W43" s="7" t="n"/>
+      <c r="AB43" s="4" t="n"/>
+      <c r="AG43" s="4" t="n"/>
+      <c r="AL43" s="4" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3646,8 +3339,8 @@
       <c r="N44" s="3" t="n">
         <v>136110</v>
       </c>
-      <c r="O44" t="n">
-        <v>16.75</v>
+      <c r="O44" s="6" t="n">
+        <v>-16.75</v>
       </c>
       <c r="P44" t="n">
         <v>6.200000000000045</v>
@@ -3655,12 +3348,17 @@
       <c r="Q44" t="n">
         <v>-23.95000000000005</v>
       </c>
-      <c r="R44" s="4" t="n">
+      <c r="R44" s="7" t="n">
         <v>-0.9500000000000455</v>
       </c>
       <c r="S44" t="n">
         <v>30.15000000000009</v>
       </c>
+      <c r="T44" s="6" t="n"/>
+      <c r="W44" s="7" t="n"/>
+      <c r="AB44" s="4" t="n"/>
+      <c r="AG44" s="4" t="n"/>
+      <c r="AL44" s="4" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3707,8 +3405,8 @@
       <c r="N45" s="3" t="n">
         <v>178353</v>
       </c>
-      <c r="O45" t="n">
-        <v>47.39999999999986</v>
+      <c r="O45" s="6" t="n">
+        <v>-47.39999999999986</v>
       </c>
       <c r="P45" t="n">
         <v>1.400000000000091</v>
@@ -3716,12 +3414,17 @@
       <c r="Q45" t="n">
         <v>-54.14999999999986</v>
       </c>
-      <c r="R45" s="4" t="n">
+      <c r="R45" s="7" t="n">
         <v>-47.09999999999991</v>
       </c>
       <c r="S45" t="n">
         <v>55.54999999999995</v>
       </c>
+      <c r="T45" s="6" t="n"/>
+      <c r="W45" s="7" t="n"/>
+      <c r="AB45" s="4" t="n"/>
+      <c r="AG45" s="4" t="n"/>
+      <c r="AL45" s="4" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3768,8 +3471,8 @@
       <c r="N46" s="3" t="n">
         <v>88305</v>
       </c>
-      <c r="O46" t="n">
-        <v>26.10000000000014</v>
+      <c r="O46" s="6" t="n">
+        <v>-26.10000000000014</v>
       </c>
       <c r="P46" t="n">
         <v>0.5999999999999091</v>
@@ -3777,12 +3480,17 @@
       <c r="Q46" t="n">
         <v>-30.40000000000009</v>
       </c>
-      <c r="R46" s="4" t="n">
+      <c r="R46" s="7" t="n">
         <v>-26.10000000000014</v>
       </c>
       <c r="S46" t="n">
         <v>31</v>
       </c>
+      <c r="T46" s="6" t="n"/>
+      <c r="W46" s="7" t="n"/>
+      <c r="AB46" s="4" t="n"/>
+      <c r="AG46" s="4" t="n"/>
+      <c r="AL46" s="4" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3829,8 +3537,8 @@
       <c r="N47" s="3" t="n">
         <v>112932</v>
       </c>
-      <c r="O47" t="n">
-        <v>0.5999999999999091</v>
+      <c r="O47" s="6" t="n">
+        <v>-0.5999999999999091</v>
       </c>
       <c r="P47" t="n">
         <v>28</v>
@@ -3838,12 +3546,17 @@
       <c r="Q47" t="n">
         <v>-15</v>
       </c>
-      <c r="R47" s="4" t="n">
+      <c r="R47" s="7" t="n">
         <v>-5.049999999999955</v>
       </c>
       <c r="S47" t="n">
         <v>43</v>
       </c>
+      <c r="T47" s="6" t="n"/>
+      <c r="W47" s="7" t="n"/>
+      <c r="AB47" s="4" t="n"/>
+      <c r="AG47" s="4" t="n"/>
+      <c r="AL47" s="4" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3890,8 +3603,8 @@
       <c r="N48" s="3" t="n">
         <v>139021</v>
       </c>
-      <c r="O48" s="5" t="n">
-        <v>-45.5</v>
+      <c r="O48" t="n">
+        <v>45.5</v>
       </c>
       <c r="P48" t="n">
         <v>51</v>
@@ -3905,6 +3618,9 @@
       <c r="S48" t="n">
         <v>51.54999999999995</v>
       </c>
+      <c r="Y48" s="5" t="n"/>
+      <c r="AD48" s="5" t="n"/>
+      <c r="AI48" s="5" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3951,8 +3667,8 @@
       <c r="N49" s="3" t="n">
         <v>93360</v>
       </c>
-      <c r="O49" s="5" t="n">
-        <v>-17.95000000000005</v>
+      <c r="O49" t="n">
+        <v>17.95000000000005</v>
       </c>
       <c r="P49" t="n">
         <v>21.79999999999995</v>
@@ -3966,6 +3682,9 @@
       <c r="S49" t="n">
         <v>31.54999999999995</v>
       </c>
+      <c r="Y49" s="5" t="n"/>
+      <c r="AD49" s="5" t="n"/>
+      <c r="AI49" s="5" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4012,8 +3731,8 @@
       <c r="N50" s="3" t="n">
         <v>85702</v>
       </c>
-      <c r="O50" s="5" t="n">
-        <v>-21.34999999999991</v>
+      <c r="O50" t="n">
+        <v>21.34999999999991</v>
       </c>
       <c r="P50" t="n">
         <v>28.09999999999991</v>
@@ -4027,6 +3746,9 @@
       <c r="S50" t="n">
         <v>34.5</v>
       </c>
+      <c r="Y50" s="5" t="n"/>
+      <c r="AD50" s="5" t="n"/>
+      <c r="AI50" s="5" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4073,8 +3795,8 @@
       <c r="N51" s="3" t="n">
         <v>189768</v>
       </c>
-      <c r="O51" s="5" t="n">
-        <v>-4.25</v>
+      <c r="O51" t="n">
+        <v>4.25</v>
       </c>
       <c r="P51" t="n">
         <v>22</v>
@@ -4088,6 +3810,9 @@
       <c r="S51" t="n">
         <v>29.25</v>
       </c>
+      <c r="Y51" s="5" t="n"/>
+      <c r="AD51" s="5" t="n"/>
+      <c r="AI51" s="5" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4134,8 +3859,8 @@
       <c r="N52" s="3" t="n">
         <v>249337</v>
       </c>
-      <c r="O52" t="n">
-        <v>1.150000000000091</v>
+      <c r="O52" s="6" t="n">
+        <v>-1.150000000000091</v>
       </c>
       <c r="P52" t="n">
         <v>18.15000000000009</v>
@@ -4143,12 +3868,17 @@
       <c r="Q52" t="n">
         <v>-14.59999999999991</v>
       </c>
-      <c r="R52" s="4" t="n">
+      <c r="R52" s="7" t="n">
         <v>-13.10000000000014</v>
       </c>
       <c r="S52" t="n">
         <v>32.75</v>
       </c>
+      <c r="T52" s="6" t="n"/>
+      <c r="W52" s="7" t="n"/>
+      <c r="AB52" s="4" t="n"/>
+      <c r="AG52" s="4" t="n"/>
+      <c r="AL52" s="4" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4195,8 +3925,8 @@
       <c r="N53" s="3" t="n">
         <v>186996</v>
       </c>
-      <c r="O53" t="n">
-        <v>63.04999999999995</v>
+      <c r="O53" s="6" t="n">
+        <v>-63.04999999999995</v>
       </c>
       <c r="P53" t="n">
         <v>1.950000000000045</v>
@@ -4204,12 +3934,17 @@
       <c r="Q53" t="n">
         <v>-69.40000000000009</v>
       </c>
-      <c r="R53" s="4" t="n">
+      <c r="R53" s="7" t="n">
         <v>-52.39999999999986</v>
       </c>
       <c r="S53" t="n">
         <v>71.35000000000014</v>
       </c>
+      <c r="T53" s="6" t="n"/>
+      <c r="W53" s="7" t="n"/>
+      <c r="AB53" s="4" t="n"/>
+      <c r="AG53" s="4" t="n"/>
+      <c r="AL53" s="4" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4256,8 +3991,8 @@
       <c r="N54" s="3" t="n">
         <v>131426</v>
       </c>
-      <c r="O54" t="n">
-        <v>20.65000000000009</v>
+      <c r="O54" s="6" t="n">
+        <v>-20.65000000000009</v>
       </c>
       <c r="P54" t="n">
         <v>3.849999999999909</v>
@@ -4265,12 +4000,17 @@
       <c r="Q54" t="n">
         <v>-28.70000000000005</v>
       </c>
-      <c r="R54" s="4" t="n">
+      <c r="R54" s="7" t="n">
         <v>-11.45000000000005</v>
       </c>
       <c r="S54" t="n">
         <v>32.54999999999995</v>
       </c>
+      <c r="T54" s="6" t="n"/>
+      <c r="W54" s="7" t="n"/>
+      <c r="AB54" s="4" t="n"/>
+      <c r="AG54" s="4" t="n"/>
+      <c r="AL54" s="4" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4317,8 +4057,8 @@
       <c r="N55" s="3" t="n">
         <v>124391</v>
       </c>
-      <c r="O55" t="n">
-        <v>9.200000000000045</v>
+      <c r="O55" s="6" t="n">
+        <v>-9.200000000000045</v>
       </c>
       <c r="P55" t="n">
         <v>11.84999999999991</v>
@@ -4326,12 +4066,17 @@
       <c r="Q55" t="n">
         <v>-21.25</v>
       </c>
-      <c r="R55" s="4" t="n">
+      <c r="R55" s="7" t="n">
         <v>-14.15000000000009</v>
       </c>
       <c r="S55" t="n">
         <v>33.09999999999991</v>
       </c>
+      <c r="T55" s="6" t="n"/>
+      <c r="W55" s="7" t="n"/>
+      <c r="AB55" s="4" t="n"/>
+      <c r="AG55" s="4" t="n"/>
+      <c r="AL55" s="4" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4378,8 +4123,8 @@
       <c r="N56" s="3" t="n">
         <v>130820</v>
       </c>
-      <c r="O56" t="n">
-        <v>2.950000000000045</v>
+      <c r="O56" s="6" t="n">
+        <v>-2.950000000000045</v>
       </c>
       <c r="P56" t="n">
         <v>11.69999999999982</v>
@@ -4393,6 +4138,7 @@
       <c r="S56" t="n">
         <v>41.59999999999991</v>
       </c>
+      <c r="T56" s="6" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4439,8 +4185,8 @@
       <c r="N57" s="3" t="n">
         <v>122685</v>
       </c>
-      <c r="O57" s="5" t="n">
-        <v>-27.54999999999995</v>
+      <c r="O57" t="n">
+        <v>27.54999999999995</v>
       </c>
       <c r="P57" t="n">
         <v>33.84999999999991</v>
@@ -4454,6 +4200,9 @@
       <c r="S57" t="n">
         <v>38.79999999999995</v>
       </c>
+      <c r="Y57" s="5" t="n"/>
+      <c r="AD57" s="5" t="n"/>
+      <c r="AI57" s="5" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4500,8 +4249,8 @@
       <c r="N58" s="3" t="n">
         <v>83152</v>
       </c>
-      <c r="O58" s="5" t="n">
-        <v>-27.15000000000009</v>
+      <c r="O58" t="n">
+        <v>27.15000000000009</v>
       </c>
       <c r="P58" t="n">
         <v>31.5</v>
@@ -4515,6 +4264,9 @@
       <c r="S58" t="n">
         <v>40.95000000000005</v>
       </c>
+      <c r="Y58" s="5" t="n"/>
+      <c r="AD58" s="5" t="n"/>
+      <c r="AI58" s="5" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4561,8 +4313,8 @@
       <c r="N59" s="3" t="n">
         <v>98456</v>
       </c>
-      <c r="O59" t="n">
-        <v>27.59999999999991</v>
+      <c r="O59" s="6" t="n">
+        <v>-27.59999999999991</v>
       </c>
       <c r="P59" t="n">
         <v>7</v>
@@ -4570,12 +4322,17 @@
       <c r="Q59" t="n">
         <v>-36.5</v>
       </c>
-      <c r="R59" s="4" t="n">
+      <c r="R59" s="7" t="n">
         <v>-16.79999999999995</v>
       </c>
       <c r="S59" t="n">
         <v>43.5</v>
       </c>
+      <c r="T59" s="6" t="n"/>
+      <c r="W59" s="7" t="n"/>
+      <c r="AB59" s="4" t="n"/>
+      <c r="AG59" s="4" t="n"/>
+      <c r="AL59" s="4" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4622,8 +4379,8 @@
       <c r="N60" s="3" t="n">
         <v>87156</v>
       </c>
-      <c r="O60" t="n">
-        <v>21.79999999999995</v>
+      <c r="O60" s="6" t="n">
+        <v>-21.79999999999995</v>
       </c>
       <c r="P60" t="n">
         <v>0.4500000000000455</v>
@@ -4631,12 +4388,17 @@
       <c r="Q60" t="n">
         <v>-26.90000000000009</v>
       </c>
-      <c r="R60" s="4" t="n">
+      <c r="R60" s="7" t="n">
         <v>-16.34999999999991</v>
       </c>
       <c r="S60" t="n">
         <v>27.35000000000014</v>
       </c>
+      <c r="T60" s="6" t="n"/>
+      <c r="W60" s="7" t="n"/>
+      <c r="AB60" s="4" t="n"/>
+      <c r="AG60" s="4" t="n"/>
+      <c r="AL60" s="4" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4683,8 +4445,8 @@
       <c r="N61" s="3" t="n">
         <v>104421</v>
       </c>
-      <c r="O61" t="n">
-        <v>30.45000000000005</v>
+      <c r="O61" s="6" t="n">
+        <v>-30.45000000000005</v>
       </c>
       <c r="P61" t="n">
         <v>9.150000000000091</v>
@@ -4692,12 +4454,17 @@
       <c r="Q61" t="n">
         <v>-36.45000000000005</v>
       </c>
-      <c r="R61" s="4" t="n">
+      <c r="R61" s="7" t="n">
         <v>-24.10000000000014</v>
       </c>
       <c r="S61" t="n">
         <v>45.60000000000014</v>
       </c>
+      <c r="T61" s="6" t="n"/>
+      <c r="W61" s="7" t="n"/>
+      <c r="AB61" s="4" t="n"/>
+      <c r="AG61" s="4" t="n"/>
+      <c r="AL61" s="4" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4744,8 +4511,8 @@
       <c r="N62" s="3" t="n">
         <v>117808</v>
       </c>
-      <c r="O62" t="n">
-        <v>10.34999999999991</v>
+      <c r="O62" s="6" t="n">
+        <v>-10.34999999999991</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -4753,12 +4520,17 @@
       <c r="Q62" t="n">
         <v>-21.34999999999991</v>
       </c>
-      <c r="R62" s="4" t="n">
+      <c r="R62" s="7" t="n">
         <v>-9.75</v>
       </c>
       <c r="S62" t="n">
         <v>24.34999999999991</v>
       </c>
+      <c r="T62" s="6" t="n"/>
+      <c r="W62" s="7" t="n"/>
+      <c r="AB62" s="4" t="n"/>
+      <c r="AG62" s="4" t="n"/>
+      <c r="AL62" s="4" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4805,8 +4577,8 @@
       <c r="N63" s="3" t="n">
         <v>118171</v>
       </c>
-      <c r="O63" s="5" t="n">
-        <v>-14.30000000000018</v>
+      <c r="O63" t="n">
+        <v>14.30000000000018</v>
       </c>
       <c r="P63" t="n">
         <v>22.35000000000014</v>
@@ -4820,6 +4592,9 @@
       <c r="S63" t="n">
         <v>26.29999999999995</v>
       </c>
+      <c r="Y63" s="5" t="n"/>
+      <c r="AD63" s="5" t="n"/>
+      <c r="AI63" s="5" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4866,8 +4641,8 @@
       <c r="N64" s="3" t="n">
         <v>130952</v>
       </c>
-      <c r="O64" s="5" t="n">
-        <v>-25.14999999999986</v>
+      <c r="O64" t="n">
+        <v>25.14999999999986</v>
       </c>
       <c r="P64" t="n">
         <v>47.09999999999991</v>
@@ -4881,6 +4656,9 @@
       <c r="S64" t="n">
         <v>67.40000000000009</v>
       </c>
+      <c r="Y64" s="5" t="n"/>
+      <c r="AD64" s="5" t="n"/>
+      <c r="AI64" s="5" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4927,8 +4705,8 @@
       <c r="N65" s="3" t="n">
         <v>100100</v>
       </c>
-      <c r="O65" t="n">
-        <v>6</v>
+      <c r="O65" s="6" t="n">
+        <v>-6</v>
       </c>
       <c r="P65" t="n">
         <v>12.15000000000009</v>
@@ -4942,6 +4720,7 @@
       <c r="S65" t="n">
         <v>35.54999999999995</v>
       </c>
+      <c r="T65" s="6" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4988,8 +4767,8 @@
       <c r="N66" s="3" t="n">
         <v>98599</v>
       </c>
-      <c r="O66" t="n">
-        <v>30.5</v>
+      <c r="O66" s="6" t="n">
+        <v>-30.5</v>
       </c>
       <c r="P66" t="n">
         <v>10</v>
@@ -4997,12 +4776,17 @@
       <c r="Q66" t="n">
         <v>-34.79999999999995</v>
       </c>
-      <c r="R66" s="4" t="n">
+      <c r="R66" s="7" t="n">
         <v>-22.25</v>
       </c>
       <c r="S66" t="n">
         <v>44.79999999999995</v>
       </c>
+      <c r="T66" s="6" t="n"/>
+      <c r="W66" s="7" t="n"/>
+      <c r="AB66" s="4" t="n"/>
+      <c r="AG66" s="4" t="n"/>
+      <c r="AL66" s="4" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5049,8 +4833,8 @@
       <c r="N67" s="3" t="n">
         <v>171773</v>
       </c>
-      <c r="O67" s="5" t="n">
-        <v>-32.70000000000005</v>
+      <c r="O67" t="n">
+        <v>32.70000000000005</v>
       </c>
       <c r="P67" t="n">
         <v>44.95000000000005</v>
@@ -5064,6 +4848,9 @@
       <c r="S67" t="n">
         <v>46.29999999999995</v>
       </c>
+      <c r="Y67" s="5" t="n"/>
+      <c r="AD67" s="5" t="n"/>
+      <c r="AI67" s="5" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5110,8 +4897,8 @@
       <c r="N68" s="3" t="n">
         <v>146890</v>
       </c>
-      <c r="O68" s="5" t="n">
-        <v>-43.09999999999991</v>
+      <c r="O68" t="n">
+        <v>43.09999999999991</v>
       </c>
       <c r="P68" t="n">
         <v>47.40000000000009</v>
@@ -5125,6 +4912,9 @@
       <c r="S68" t="n">
         <v>56.15000000000009</v>
       </c>
+      <c r="Y68" s="5" t="n"/>
+      <c r="AD68" s="5" t="n"/>
+      <c r="AI68" s="5" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5171,8 +4961,8 @@
       <c r="N69" s="3" t="n">
         <v>143836</v>
       </c>
-      <c r="O69" s="5" t="n">
-        <v>-12.84999999999991</v>
+      <c r="O69" t="n">
+        <v>12.84999999999991</v>
       </c>
       <c r="P69" t="n">
         <v>18.79999999999995</v>
@@ -5186,6 +4976,9 @@
       <c r="S69" t="n">
         <v>29.84999999999991</v>
       </c>
+      <c r="Y69" s="5" t="n"/>
+      <c r="AD69" s="5" t="n"/>
+      <c r="AI69" s="5" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5232,8 +5025,8 @@
       <c r="N70" s="3" t="n">
         <v>64427</v>
       </c>
-      <c r="O70" s="5" t="n">
-        <v>-4.200000000000045</v>
+      <c r="O70" t="n">
+        <v>4.200000000000045</v>
       </c>
       <c r="P70" t="n">
         <v>10.5</v>
@@ -5247,6 +5040,9 @@
       <c r="S70" t="n">
         <v>12</v>
       </c>
+      <c r="Y70" s="5" t="n"/>
+      <c r="AD70" s="5" t="n"/>
+      <c r="AI70" s="5" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5293,8 +5089,8 @@
       <c r="N71" s="3" t="n">
         <v>78433</v>
       </c>
-      <c r="O71" t="n">
-        <v>10.75</v>
+      <c r="O71" s="6" t="n">
+        <v>-10.75</v>
       </c>
       <c r="P71" t="n">
         <v>4.350000000000136</v>
@@ -5308,6 +5104,7 @@
       <c r="S71" t="n">
         <v>25.85000000000014</v>
       </c>
+      <c r="T71" s="6" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5354,8 +5151,8 @@
       <c r="N72" s="3" t="n">
         <v>74110</v>
       </c>
-      <c r="O72" t="n">
-        <v>16.54999999999995</v>
+      <c r="O72" s="6" t="n">
+        <v>-16.54999999999995</v>
       </c>
       <c r="P72" t="n">
         <v>4.650000000000091</v>
@@ -5363,12 +5160,17 @@
       <c r="Q72" t="n">
         <v>-25</v>
       </c>
-      <c r="R72" s="4" t="n">
+      <c r="R72" s="7" t="n">
         <v>-16.29999999999995</v>
       </c>
       <c r="S72" t="n">
         <v>29.65000000000009</v>
       </c>
+      <c r="T72" s="6" t="n"/>
+      <c r="W72" s="7" t="n"/>
+      <c r="AB72" s="4" t="n"/>
+      <c r="AG72" s="4" t="n"/>
+      <c r="AL72" s="4" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5415,8 +5217,8 @@
       <c r="N73" s="3" t="n">
         <v>74086</v>
       </c>
-      <c r="O73" s="5" t="n">
-        <v>-6.75</v>
+      <c r="O73" t="n">
+        <v>6.75</v>
       </c>
       <c r="P73" t="n">
         <v>18.40000000000009</v>
@@ -5430,6 +5232,9 @@
       <c r="S73" t="n">
         <v>22.25</v>
       </c>
+      <c r="Y73" s="5" t="n"/>
+      <c r="AD73" s="5" t="n"/>
+      <c r="AI73" s="5" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5476,8 +5281,8 @@
       <c r="N74" s="3" t="n">
         <v>100706</v>
       </c>
-      <c r="O74" t="n">
-        <v>37.59999999999991</v>
+      <c r="O74" s="6" t="n">
+        <v>-37.59999999999991</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -5485,12 +5290,17 @@
       <c r="Q74" t="n">
         <v>-49.20000000000005</v>
       </c>
-      <c r="R74" s="4" t="n">
+      <c r="R74" s="7" t="n">
         <v>-32.34999999999991</v>
       </c>
       <c r="S74" t="n">
         <v>49.20000000000005</v>
       </c>
+      <c r="T74" s="6" t="n"/>
+      <c r="W74" s="7" t="n"/>
+      <c r="AB74" s="4" t="n"/>
+      <c r="AG74" s="4" t="n"/>
+      <c r="AL74" s="4" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5537,8 +5347,8 @@
       <c r="N75" s="3" t="n">
         <v>96008</v>
       </c>
-      <c r="O75" s="5" t="n">
-        <v>-9.549999999999955</v>
+      <c r="O75" t="n">
+        <v>9.549999999999955</v>
       </c>
       <c r="P75" t="n">
         <v>21</v>
@@ -5552,6 +5362,9 @@
       <c r="S75" t="n">
         <v>23.34999999999991</v>
       </c>
+      <c r="Y75" s="5" t="n"/>
+      <c r="AD75" s="5" t="n"/>
+      <c r="AI75" s="5" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5598,8 +5411,8 @@
       <c r="N76" s="3" t="n">
         <v>131439</v>
       </c>
-      <c r="O76" s="5" t="n">
-        <v>-25.29999999999995</v>
+      <c r="O76" t="n">
+        <v>25.29999999999995</v>
       </c>
       <c r="P76" t="n">
         <v>39.75</v>
@@ -5613,6 +5426,9 @@
       <c r="S76" t="n">
         <v>45.45000000000005</v>
       </c>
+      <c r="Y76" s="5" t="n"/>
+      <c r="AD76" s="5" t="n"/>
+      <c r="AI76" s="5" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -5659,8 +5475,8 @@
       <c r="N77" s="3" t="n">
         <v>96931</v>
       </c>
-      <c r="O77" t="n">
-        <v>4.849999999999909</v>
+      <c r="O77" s="6" t="n">
+        <v>-4.849999999999909</v>
       </c>
       <c r="P77" t="n">
         <v>1.799999999999955</v>
@@ -5674,6 +5490,7 @@
       <c r="S77" t="n">
         <v>17.25</v>
       </c>
+      <c r="T77" s="6" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5720,8 +5537,8 @@
       <c r="N78" s="3" t="n">
         <v>76313</v>
       </c>
-      <c r="O78" s="5" t="n">
-        <v>-14</v>
+      <c r="O78" t="n">
+        <v>14</v>
       </c>
       <c r="P78" t="n">
         <v>17.04999999999995</v>
@@ -5735,6 +5552,9 @@
       <c r="S78" t="n">
         <v>30.25</v>
       </c>
+      <c r="Y78" s="5" t="n"/>
+      <c r="AD78" s="5" t="n"/>
+      <c r="AI78" s="5" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5781,8 +5601,8 @@
       <c r="N79" s="3" t="n">
         <v>18133</v>
       </c>
-      <c r="O79" t="n">
-        <v>13.75</v>
+      <c r="O79" s="6" t="n">
+        <v>-13.75</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -5796,6 +5616,7 @@
       <c r="S79" t="n">
         <v>16.65000000000009</v>
       </c>
+      <c r="T79" s="6" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5842,8 +5663,8 @@
       <c r="N80" s="3" t="n">
         <v>156757</v>
       </c>
-      <c r="O80" t="n">
-        <v>25.90000000000009</v>
+      <c r="O80" s="6" t="n">
+        <v>-25.90000000000009</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -5851,12 +5672,17 @@
       <c r="Q80" t="n">
         <v>-34.70000000000005</v>
       </c>
-      <c r="R80" s="4" t="n">
+      <c r="R80" s="7" t="n">
         <v>-27.95000000000005</v>
       </c>
       <c r="S80" t="n">
         <v>35.70000000000005</v>
       </c>
+      <c r="T80" s="6" t="n"/>
+      <c r="W80" s="7" t="n"/>
+      <c r="AB80" s="4" t="n"/>
+      <c r="AG80" s="4" t="n"/>
+      <c r="AL80" s="4" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5903,8 +5729,8 @@
       <c r="N81" s="3" t="n">
         <v>175935</v>
       </c>
-      <c r="O81" s="5" t="n">
-        <v>-64.64999999999986</v>
+      <c r="O81" t="n">
+        <v>64.64999999999986</v>
       </c>
       <c r="P81" t="n">
         <v>71.29999999999995</v>
@@ -5918,6 +5744,9 @@
       <c r="S81" t="n">
         <v>71.29999999999995</v>
       </c>
+      <c r="Y81" s="5" t="n"/>
+      <c r="AD81" s="5" t="n"/>
+      <c r="AI81" s="5" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5964,8 +5793,8 @@
       <c r="N82" s="3" t="n">
         <v>63329</v>
       </c>
-      <c r="O82" s="5" t="n">
-        <v>-2.350000000000136</v>
+      <c r="O82" t="n">
+        <v>2.350000000000136</v>
       </c>
       <c r="P82" t="n">
         <v>4.350000000000136</v>
@@ -5979,6 +5808,9 @@
       <c r="S82" t="n">
         <v>15.40000000000009</v>
       </c>
+      <c r="Y82" s="5" t="n"/>
+      <c r="AD82" s="5" t="n"/>
+      <c r="AI82" s="5" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6025,8 +5857,8 @@
       <c r="N83" s="3" t="n">
         <v>91741</v>
       </c>
-      <c r="O83" t="n">
-        <v>8.5</v>
+      <c r="O83" s="6" t="n">
+        <v>-8.5</v>
       </c>
       <c r="P83" t="n">
         <v>8.75</v>
@@ -6034,12 +5866,17 @@
       <c r="Q83" t="n">
         <v>-13.25</v>
       </c>
-      <c r="R83" s="4" t="n">
+      <c r="R83" s="7" t="n">
         <v>-8.549999999999955</v>
       </c>
       <c r="S83" t="n">
         <v>22</v>
       </c>
+      <c r="T83" s="6" t="n"/>
+      <c r="W83" s="7" t="n"/>
+      <c r="AB83" s="4" t="n"/>
+      <c r="AG83" s="4" t="n"/>
+      <c r="AL83" s="4" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6086,8 +5923,8 @@
       <c r="N84" s="3" t="n">
         <v>70563</v>
       </c>
-      <c r="O84" s="5" t="n">
-        <v>-6.5</v>
+      <c r="O84" t="n">
+        <v>6.5</v>
       </c>
       <c r="P84" t="n">
         <v>10.40000000000009</v>
@@ -6101,6 +5938,9 @@
       <c r="S84" t="n">
         <v>18.65000000000009</v>
       </c>
+      <c r="Y84" s="5" t="n"/>
+      <c r="AD84" s="5" t="n"/>
+      <c r="AI84" s="5" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -6147,8 +5987,8 @@
       <c r="N85" s="3" t="n">
         <v>114156</v>
       </c>
-      <c r="O85" t="n">
-        <v>11</v>
+      <c r="O85" s="6" t="n">
+        <v>-11</v>
       </c>
       <c r="P85" t="n">
         <v>8.099999999999909</v>
@@ -6156,12 +5996,17 @@
       <c r="Q85" t="n">
         <v>-19.54999999999995</v>
       </c>
-      <c r="R85" s="4" t="n">
+      <c r="R85" s="7" t="n">
         <v>-0.7000000000000455</v>
       </c>
       <c r="S85" t="n">
         <v>27.64999999999986</v>
       </c>
+      <c r="T85" s="6" t="n"/>
+      <c r="W85" s="7" t="n"/>
+      <c r="AB85" s="4" t="n"/>
+      <c r="AG85" s="4" t="n"/>
+      <c r="AL85" s="4" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -6208,8 +6053,8 @@
       <c r="N86" s="3" t="n">
         <v>114675</v>
       </c>
-      <c r="O86" s="5" t="n">
-        <v>-4.700000000000045</v>
+      <c r="O86" t="n">
+        <v>4.700000000000045</v>
       </c>
       <c r="P86" t="n">
         <v>12.5</v>
@@ -6223,6 +6068,9 @@
       <c r="S86" t="n">
         <v>25</v>
       </c>
+      <c r="Y86" s="5" t="n"/>
+      <c r="AD86" s="5" t="n"/>
+      <c r="AI86" s="5" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -6269,8 +6117,8 @@
       <c r="N87" s="3" t="n">
         <v>124446</v>
       </c>
-      <c r="O87" t="n">
-        <v>10.30000000000018</v>
+      <c r="O87" s="6" t="n">
+        <v>-10.30000000000018</v>
       </c>
       <c r="P87" t="n">
         <v>20.09999999999991</v>
@@ -6278,12 +6126,17 @@
       <c r="Q87" t="n">
         <v>-14.90000000000009</v>
       </c>
-      <c r="R87" s="4" t="n">
+      <c r="R87" s="7" t="n">
         <v>-4</v>
       </c>
       <c r="S87" t="n">
         <v>35</v>
       </c>
+      <c r="T87" s="6" t="n"/>
+      <c r="W87" s="7" t="n"/>
+      <c r="AB87" s="4" t="n"/>
+      <c r="AG87" s="4" t="n"/>
+      <c r="AL87" s="4" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -6330,8 +6183,8 @@
       <c r="N88" s="3" t="n">
         <v>120821</v>
       </c>
-      <c r="O88" t="n">
-        <v>35.60000000000014</v>
+      <c r="O88" s="6" t="n">
+        <v>-35.60000000000014</v>
       </c>
       <c r="P88" t="n">
         <v>3.099999999999909</v>
@@ -6339,12 +6192,17 @@
       <c r="Q88" t="n">
         <v>-38.65000000000009</v>
       </c>
-      <c r="R88" s="4" t="n">
+      <c r="R88" s="7" t="n">
         <v>-39.20000000000005</v>
       </c>
       <c r="S88" t="n">
         <v>41.75</v>
       </c>
+      <c r="T88" s="6" t="n"/>
+      <c r="W88" s="7" t="n"/>
+      <c r="AB88" s="4" t="n"/>
+      <c r="AG88" s="4" t="n"/>
+      <c r="AL88" s="4" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -6391,8 +6249,8 @@
       <c r="N89" s="3" t="n">
         <v>109907</v>
       </c>
-      <c r="O89" t="n">
-        <v>4.299999999999955</v>
+      <c r="O89" s="6" t="n">
+        <v>-4.299999999999955</v>
       </c>
       <c r="P89" t="n">
         <v>13.35000000000014</v>
@@ -6400,12 +6258,17 @@
       <c r="Q89" t="n">
         <v>-38.89999999999986</v>
       </c>
-      <c r="R89" s="4" t="n">
+      <c r="R89" s="7" t="n">
         <v>-13</v>
       </c>
       <c r="S89" t="n">
         <v>52.25</v>
       </c>
+      <c r="T89" s="6" t="n"/>
+      <c r="W89" s="7" t="n"/>
+      <c r="AB89" s="4" t="n"/>
+      <c r="AG89" s="4" t="n"/>
+      <c r="AL89" s="4" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -6452,8 +6315,8 @@
       <c r="N90" s="3" t="n">
         <v>131095</v>
       </c>
-      <c r="O90" s="5" t="n">
-        <v>-2.450000000000045</v>
+      <c r="O90" t="n">
+        <v>2.450000000000045</v>
       </c>
       <c r="P90" t="n">
         <v>25.60000000000014</v>
@@ -6467,6 +6330,9 @@
       <c r="S90" t="n">
         <v>26.65000000000009</v>
       </c>
+      <c r="Y90" s="5" t="n"/>
+      <c r="AD90" s="5" t="n"/>
+      <c r="AI90" s="5" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -6513,8 +6379,8 @@
       <c r="N91" s="3" t="n">
         <v>160693</v>
       </c>
-      <c r="O91" t="n">
-        <v>47.90000000000009</v>
+      <c r="O91" s="6" t="n">
+        <v>-47.90000000000009</v>
       </c>
       <c r="P91" t="n">
         <v>4.200000000000045</v>
@@ -6522,12 +6388,17 @@
       <c r="Q91" t="n">
         <v>-54</v>
       </c>
-      <c r="R91" s="4" t="n">
+      <c r="R91" s="7" t="n">
         <v>-63</v>
       </c>
       <c r="S91" t="n">
         <v>58.20000000000005</v>
       </c>
+      <c r="T91" s="6" t="n"/>
+      <c r="W91" s="7" t="n"/>
+      <c r="AB91" s="4" t="n"/>
+      <c r="AG91" s="4" t="n"/>
+      <c r="AL91" s="4" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -6574,8 +6445,8 @@
       <c r="N92" s="3" t="n">
         <v>100426</v>
       </c>
-      <c r="O92" t="n">
-        <v>4.900000000000091</v>
+      <c r="O92" s="6" t="n">
+        <v>-4.900000000000091</v>
       </c>
       <c r="P92" t="n">
         <v>2.599999999999909</v>
@@ -6589,6 +6460,7 @@
       <c r="S92" t="n">
         <v>29.59999999999991</v>
       </c>
+      <c r="T92" s="6" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -6635,8 +6507,8 @@
       <c r="N93" s="3" t="n">
         <v>69299</v>
       </c>
-      <c r="O93" s="5" t="n">
-        <v>-16.90000000000009</v>
+      <c r="O93" t="n">
+        <v>16.90000000000009</v>
       </c>
       <c r="P93" t="n">
         <v>26.65000000000009</v>
@@ -6650,6 +6522,9 @@
       <c r="S93" t="n">
         <v>28.40000000000009</v>
       </c>
+      <c r="Y93" s="5" t="n"/>
+      <c r="AD93" s="5" t="n"/>
+      <c r="AI93" s="5" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -6696,8 +6571,8 @@
       <c r="N94" s="3" t="n">
         <v>91618</v>
       </c>
-      <c r="O94" t="n">
-        <v>7.75</v>
+      <c r="O94" s="6" t="n">
+        <v>-7.75</v>
       </c>
       <c r="P94" t="n">
         <v>9</v>
@@ -6705,12 +6580,17 @@
       <c r="Q94" t="n">
         <v>-20.90000000000009</v>
       </c>
-      <c r="R94" s="4" t="n">
+      <c r="R94" s="7" t="n">
         <v>-11.29999999999995</v>
       </c>
       <c r="S94" t="n">
         <v>29.90000000000009</v>
       </c>
+      <c r="T94" s="6" t="n"/>
+      <c r="W94" s="7" t="n"/>
+      <c r="AB94" s="4" t="n"/>
+      <c r="AG94" s="4" t="n"/>
+      <c r="AL94" s="4" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -6757,8 +6637,8 @@
       <c r="N95" s="3" t="n">
         <v>96393</v>
       </c>
-      <c r="O95" s="5" t="n">
-        <v>-16.20000000000005</v>
+      <c r="O95" t="n">
+        <v>16.20000000000005</v>
       </c>
       <c r="P95" t="n">
         <v>25.55000000000018</v>
@@ -6766,12 +6646,19 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="R95" s="4" t="n">
+      <c r="R95" s="7" t="n">
         <v>-5.299999999999955</v>
       </c>
       <c r="S95" t="n">
         <v>25.55000000000018</v>
       </c>
+      <c r="W95" s="7" t="n"/>
+      <c r="Y95" s="5" t="n"/>
+      <c r="AB95" s="4" t="n"/>
+      <c r="AD95" s="5" t="n"/>
+      <c r="AG95" s="4" t="n"/>
+      <c r="AI95" s="5" t="n"/>
+      <c r="AL95" s="4" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -6818,8 +6705,8 @@
       <c r="N96" s="3" t="n">
         <v>84374</v>
       </c>
-      <c r="O96" t="n">
-        <v>1.75</v>
+      <c r="O96" s="6" t="n">
+        <v>-1.75</v>
       </c>
       <c r="P96" t="n">
         <v>2.850000000000136</v>
@@ -6827,12 +6714,17 @@
       <c r="Q96" t="n">
         <v>-14.84999999999991</v>
       </c>
-      <c r="R96" s="4" t="n">
+      <c r="R96" s="7" t="n">
         <v>-1.75</v>
       </c>
       <c r="S96" t="n">
         <v>17.70000000000005</v>
       </c>
+      <c r="T96" s="6" t="n"/>
+      <c r="W96" s="7" t="n"/>
+      <c r="AB96" s="4" t="n"/>
+      <c r="AG96" s="4" t="n"/>
+      <c r="AL96" s="4" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -6879,8 +6771,8 @@
       <c r="N97" s="3" t="n">
         <v>70716</v>
       </c>
-      <c r="O97" s="5" t="n">
-        <v>-1.599999999999909</v>
+      <c r="O97" t="n">
+        <v>1.599999999999909</v>
       </c>
       <c r="P97" t="n">
         <v>8.900000000000091</v>
@@ -6894,6 +6786,9 @@
       <c r="S97" t="n">
         <v>15.30000000000018</v>
       </c>
+      <c r="Y97" s="5" t="n"/>
+      <c r="AD97" s="5" t="n"/>
+      <c r="AI97" s="5" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -6940,8 +6835,8 @@
       <c r="N98" s="3" t="n">
         <v>72668</v>
       </c>
-      <c r="O98" s="5" t="n">
-        <v>-11.70000000000005</v>
+      <c r="O98" t="n">
+        <v>11.70000000000005</v>
       </c>
       <c r="P98" t="n">
         <v>14.40000000000009</v>
@@ -6955,6 +6850,9 @@
       <c r="S98" t="n">
         <v>18.75</v>
       </c>
+      <c r="Y98" s="5" t="n"/>
+      <c r="AD98" s="5" t="n"/>
+      <c r="AI98" s="5" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -7001,8 +6899,8 @@
       <c r="N99" s="3" t="n">
         <v>91610</v>
       </c>
-      <c r="O99" s="5" t="n">
-        <v>-1.950000000000045</v>
+      <c r="O99" t="n">
+        <v>1.950000000000045</v>
       </c>
       <c r="P99" t="n">
         <v>13.90000000000009</v>
@@ -7010,12 +6908,19 @@
       <c r="Q99" t="n">
         <v>-10.20000000000005</v>
       </c>
-      <c r="R99" s="4" t="n">
+      <c r="R99" s="7" t="n">
         <v>-4.200000000000045</v>
       </c>
       <c r="S99" t="n">
         <v>24.10000000000014</v>
       </c>
+      <c r="W99" s="7" t="n"/>
+      <c r="Y99" s="5" t="n"/>
+      <c r="AB99" s="4" t="n"/>
+      <c r="AD99" s="5" t="n"/>
+      <c r="AG99" s="4" t="n"/>
+      <c r="AI99" s="5" t="n"/>
+      <c r="AL99" s="4" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -7062,8 +6967,8 @@
       <c r="N100" s="3" t="n">
         <v>96976</v>
       </c>
-      <c r="O100" s="5" t="n">
-        <v>-7.650000000000091</v>
+      <c r="O100" t="n">
+        <v>7.650000000000091</v>
       </c>
       <c r="P100" t="n">
         <v>11.04999999999995</v>
@@ -7077,6 +6982,9 @@
       <c r="S100" t="n">
         <v>14.45000000000005</v>
       </c>
+      <c r="Y100" s="5" t="n"/>
+      <c r="AD100" s="5" t="n"/>
+      <c r="AI100" s="5" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -7123,8 +7031,8 @@
       <c r="N101" s="3" t="n">
         <v>81417</v>
       </c>
-      <c r="O101" s="5" t="n">
-        <v>-16.29999999999995</v>
+      <c r="O101" t="n">
+        <v>16.29999999999995</v>
       </c>
       <c r="P101" t="n">
         <v>19.15000000000009</v>
@@ -7138,6 +7046,9 @@
       <c r="S101" t="n">
         <v>19.15000000000009</v>
       </c>
+      <c r="Y101" s="5" t="n"/>
+      <c r="AD101" s="5" t="n"/>
+      <c r="AI101" s="5" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -7184,8 +7095,8 @@
       <c r="N102" s="3" t="n">
         <v>99328</v>
       </c>
-      <c r="O102" s="5" t="n">
-        <v>-16.39999999999986</v>
+      <c r="O102" t="n">
+        <v>16.39999999999986</v>
       </c>
       <c r="P102" t="n">
         <v>22.39999999999986</v>
@@ -7199,6 +7110,9 @@
       <c r="S102" t="n">
         <v>24.64999999999986</v>
       </c>
+      <c r="Y102" s="5" t="n"/>
+      <c r="AD102" s="5" t="n"/>
+      <c r="AI102" s="5" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -7245,8 +7159,8 @@
       <c r="N103" s="3" t="n">
         <v>78785</v>
       </c>
-      <c r="O103" t="n">
-        <v>24.79999999999995</v>
+      <c r="O103" s="6" t="n">
+        <v>-24.79999999999995</v>
       </c>
       <c r="P103" t="n">
         <v>1.25</v>
@@ -7254,12 +7168,17 @@
       <c r="Q103" t="n">
         <v>-26</v>
       </c>
-      <c r="R103" s="4" t="n">
+      <c r="R103" s="7" t="n">
         <v>-33.64999999999986</v>
       </c>
       <c r="S103" t="n">
         <v>27.25</v>
       </c>
+      <c r="T103" s="6" t="n"/>
+      <c r="W103" s="7" t="n"/>
+      <c r="AB103" s="4" t="n"/>
+      <c r="AG103" s="4" t="n"/>
+      <c r="AL103" s="4" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -7306,8 +7225,8 @@
       <c r="N104" s="3" t="n">
         <v>82505</v>
       </c>
-      <c r="O104" s="5" t="n">
-        <v>-3.849999999999909</v>
+      <c r="O104" t="n">
+        <v>3.849999999999909</v>
       </c>
       <c r="P104" t="n">
         <v>9</v>
@@ -7321,6 +7240,9 @@
       <c r="S104" t="n">
         <v>13.65000000000009</v>
       </c>
+      <c r="Y104" s="5" t="n"/>
+      <c r="AD104" s="5" t="n"/>
+      <c r="AI104" s="5" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -7367,8 +7289,8 @@
       <c r="N105" s="3" t="n">
         <v>149329</v>
       </c>
-      <c r="O105" s="5" t="n">
-        <v>-4.950000000000045</v>
+      <c r="O105" t="n">
+        <v>4.950000000000045</v>
       </c>
       <c r="P105" t="n">
         <v>17.79999999999995</v>
@@ -7382,6 +7304,9 @@
       <c r="S105" t="n">
         <v>37.75</v>
       </c>
+      <c r="Y105" s="5" t="n"/>
+      <c r="AD105" s="5" t="n"/>
+      <c r="AI105" s="5" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -7428,8 +7353,8 @@
       <c r="N106" s="3" t="n">
         <v>105636</v>
       </c>
-      <c r="O106" t="n">
-        <v>9.700000000000045</v>
+      <c r="O106" s="6" t="n">
+        <v>-9.700000000000045</v>
       </c>
       <c r="P106" t="n">
         <v>6.100000000000136</v>
@@ -7437,12 +7362,17 @@
       <c r="Q106" t="n">
         <v>-30.04999999999995</v>
       </c>
-      <c r="R106" s="4" t="n">
+      <c r="R106" s="7" t="n">
         <v>-15.30000000000018</v>
       </c>
       <c r="S106" t="n">
         <v>36.15000000000009</v>
       </c>
+      <c r="T106" s="6" t="n"/>
+      <c r="W106" s="7" t="n"/>
+      <c r="AB106" s="4" t="n"/>
+      <c r="AG106" s="4" t="n"/>
+      <c r="AL106" s="4" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -7489,8 +7419,8 @@
       <c r="N107" s="3" t="n">
         <v>115789</v>
       </c>
-      <c r="O107" t="n">
-        <v>59.79999999999995</v>
+      <c r="O107" s="6" t="n">
+        <v>-59.79999999999995</v>
       </c>
       <c r="P107" t="n">
         <v>0.7999999999999545</v>
@@ -7498,12 +7428,17 @@
       <c r="Q107" t="n">
         <v>-64.15000000000009</v>
       </c>
-      <c r="R107" s="4" t="n">
+      <c r="R107" s="7" t="n">
         <v>-16.84999999999991</v>
       </c>
       <c r="S107" t="n">
         <v>64.95000000000005</v>
       </c>
+      <c r="T107" s="6" t="n"/>
+      <c r="W107" s="7" t="n"/>
+      <c r="AB107" s="4" t="n"/>
+      <c r="AG107" s="4" t="n"/>
+      <c r="AL107" s="4" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -7550,8 +7485,8 @@
       <c r="N108" s="3" t="n">
         <v>78231</v>
       </c>
-      <c r="O108" t="n">
-        <v>19.75</v>
+      <c r="O108" s="6" t="n">
+        <v>-19.75</v>
       </c>
       <c r="P108" t="n">
         <v>2.5</v>
@@ -7559,12 +7494,17 @@
       <c r="Q108" t="n">
         <v>-23.90000000000009</v>
       </c>
-      <c r="R108" s="4" t="n">
+      <c r="R108" s="7" t="n">
         <v>-1.799999999999955</v>
       </c>
       <c r="S108" t="n">
         <v>26.40000000000009</v>
       </c>
+      <c r="T108" s="6" t="n"/>
+      <c r="W108" s="7" t="n"/>
+      <c r="AB108" s="4" t="n"/>
+      <c r="AG108" s="4" t="n"/>
+      <c r="AL108" s="4" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -7611,8 +7551,8 @@
       <c r="N109" s="3" t="n">
         <v>125645</v>
       </c>
-      <c r="O109" t="n">
-        <v>39.90000000000009</v>
+      <c r="O109" s="6" t="n">
+        <v>-39.90000000000009</v>
       </c>
       <c r="P109" t="n">
         <v>0.9500000000000455</v>
@@ -7620,12 +7560,17 @@
       <c r="Q109" t="n">
         <v>-51.95000000000005</v>
       </c>
-      <c r="R109" s="4" t="n">
+      <c r="R109" s="7" t="n">
         <v>-33.15000000000009</v>
       </c>
       <c r="S109" t="n">
         <v>52.90000000000009</v>
       </c>
+      <c r="T109" s="6" t="n"/>
+      <c r="W109" s="7" t="n"/>
+      <c r="AB109" s="4" t="n"/>
+      <c r="AG109" s="4" t="n"/>
+      <c r="AL109" s="4" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -7672,8 +7617,8 @@
       <c r="N110" s="3" t="n">
         <v>67369</v>
       </c>
-      <c r="O110" t="n">
-        <v>5.649999999999864</v>
+      <c r="O110" s="6" t="n">
+        <v>-5.649999999999864</v>
       </c>
       <c r="P110" t="n">
         <v>4.75</v>
@@ -7681,12 +7626,17 @@
       <c r="Q110" t="n">
         <v>-11.59999999999991</v>
       </c>
-      <c r="R110" s="4" t="n">
+      <c r="R110" s="7" t="n">
         <v>-6</v>
       </c>
       <c r="S110" t="n">
         <v>16.34999999999991</v>
       </c>
+      <c r="T110" s="6" t="n"/>
+      <c r="W110" s="7" t="n"/>
+      <c r="AB110" s="4" t="n"/>
+      <c r="AG110" s="4" t="n"/>
+      <c r="AL110" s="4" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -7733,8 +7683,8 @@
       <c r="N111" s="3" t="n">
         <v>90867</v>
       </c>
-      <c r="O111" s="5" t="n">
-        <v>-5.75</v>
+      <c r="O111" t="n">
+        <v>5.75</v>
       </c>
       <c r="P111" t="n">
         <v>17.14999999999986</v>
@@ -7748,6 +7698,9 @@
       <c r="S111" t="n">
         <v>24.59999999999991</v>
       </c>
+      <c r="Y111" s="5" t="n"/>
+      <c r="AD111" s="5" t="n"/>
+      <c r="AI111" s="5" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -7794,8 +7747,8 @@
       <c r="N112" s="3" t="n">
         <v>119251</v>
       </c>
-      <c r="O112" t="n">
-        <v>23.5</v>
+      <c r="O112" s="6" t="n">
+        <v>-23.5</v>
       </c>
       <c r="P112" t="n">
         <v>7.049999999999955</v>
@@ -7803,12 +7756,17 @@
       <c r="Q112" t="n">
         <v>-30.60000000000014</v>
       </c>
-      <c r="R112" s="4" t="n">
+      <c r="R112" s="7" t="n">
         <v>-17.70000000000005</v>
       </c>
       <c r="S112" t="n">
         <v>37.65000000000009</v>
       </c>
+      <c r="T112" s="6" t="n"/>
+      <c r="W112" s="7" t="n"/>
+      <c r="AB112" s="4" t="n"/>
+      <c r="AG112" s="4" t="n"/>
+      <c r="AL112" s="4" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -7855,8 +7813,8 @@
       <c r="N113" s="3" t="n">
         <v>158229</v>
       </c>
-      <c r="O113" s="5" t="n">
-        <v>-27.15000000000009</v>
+      <c r="O113" t="n">
+        <v>27.15000000000009</v>
       </c>
       <c r="P113" t="n">
         <v>37.95000000000005</v>
@@ -7870,6 +7828,9 @@
       <c r="S113" t="n">
         <v>51.85000000000014</v>
       </c>
+      <c r="Y113" s="5" t="n"/>
+      <c r="AD113" s="5" t="n"/>
+      <c r="AI113" s="5" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -7916,8 +7877,8 @@
       <c r="N114" s="3" t="n">
         <v>132021</v>
       </c>
-      <c r="O114" t="n">
-        <v>54.54999999999995</v>
+      <c r="O114" s="6" t="n">
+        <v>-54.54999999999995</v>
       </c>
       <c r="P114" t="n">
         <v>18.40000000000009</v>
@@ -7925,12 +7886,17 @@
       <c r="Q114" t="n">
         <v>-62.70000000000005</v>
       </c>
-      <c r="R114" s="4" t="n">
+      <c r="R114" s="7" t="n">
         <v>-50.75</v>
       </c>
       <c r="S114" t="n">
         <v>81.10000000000014</v>
       </c>
+      <c r="T114" s="6" t="n"/>
+      <c r="W114" s="7" t="n"/>
+      <c r="AB114" s="4" t="n"/>
+      <c r="AG114" s="4" t="n"/>
+      <c r="AL114" s="4" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -7977,8 +7943,8 @@
       <c r="N115" s="3" t="n">
         <v>161553</v>
       </c>
-      <c r="O115" s="5" t="n">
-        <v>-13.90000000000009</v>
+      <c r="O115" t="n">
+        <v>13.90000000000009</v>
       </c>
       <c r="P115" t="n">
         <v>44.90000000000009</v>
@@ -7986,12 +7952,19 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
-      <c r="R115" s="4" t="n">
+      <c r="R115" s="7" t="n">
         <v>-7.450000000000045</v>
       </c>
       <c r="S115" t="n">
         <v>44.90000000000009</v>
       </c>
+      <c r="W115" s="7" t="n"/>
+      <c r="Y115" s="5" t="n"/>
+      <c r="AB115" s="4" t="n"/>
+      <c r="AD115" s="5" t="n"/>
+      <c r="AG115" s="4" t="n"/>
+      <c r="AI115" s="5" t="n"/>
+      <c r="AL115" s="4" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -8038,8 +8011,8 @@
       <c r="N116" s="3" t="n">
         <v>238663</v>
       </c>
-      <c r="O116" s="5" t="n">
-        <v>-32.70000000000005</v>
+      <c r="O116" t="n">
+        <v>32.70000000000005</v>
       </c>
       <c r="P116" t="n">
         <v>61.25</v>
@@ -8053,6 +8026,9 @@
       <c r="S116" t="n">
         <v>67.90000000000009</v>
       </c>
+      <c r="Y116" s="5" t="n"/>
+      <c r="AD116" s="5" t="n"/>
+      <c r="AI116" s="5" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -8099,8 +8075,8 @@
       <c r="N117" s="3" t="n">
         <v>132986</v>
       </c>
-      <c r="O117" s="5" t="n">
-        <v>-21.44999999999982</v>
+      <c r="O117" t="n">
+        <v>21.44999999999982</v>
       </c>
       <c r="P117" t="n">
         <v>31.04999999999995</v>
@@ -8114,6 +8090,9 @@
       <c r="S117" t="n">
         <v>38.85000000000014</v>
       </c>
+      <c r="Y117" s="5" t="n"/>
+      <c r="AD117" s="5" t="n"/>
+      <c r="AI117" s="5" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -8160,8 +8139,8 @@
       <c r="N118" s="3" t="n">
         <v>111644</v>
       </c>
-      <c r="O118" s="5" t="n">
-        <v>-21</v>
+      <c r="O118" t="n">
+        <v>21</v>
       </c>
       <c r="P118" t="n">
         <v>30.40000000000009</v>
@@ -8175,6 +8154,9 @@
       <c r="S118" t="n">
         <v>37.05000000000018</v>
       </c>
+      <c r="Y118" s="5" t="n"/>
+      <c r="AD118" s="5" t="n"/>
+      <c r="AI118" s="5" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -8221,8 +8203,8 @@
       <c r="N119" s="3" t="n">
         <v>106500</v>
       </c>
-      <c r="O119" t="n">
-        <v>27.04999999999995</v>
+      <c r="O119" s="6" t="n">
+        <v>-27.04999999999995</v>
       </c>
       <c r="P119" t="n">
         <v>4.599999999999909</v>
@@ -8230,12 +8212,17 @@
       <c r="Q119" t="n">
         <v>-33.90000000000009</v>
       </c>
-      <c r="R119" s="4" t="n">
+      <c r="R119" s="7" t="n">
         <v>-21</v>
       </c>
       <c r="S119" t="n">
         <v>38.5</v>
       </c>
+      <c r="T119" s="6" t="n"/>
+      <c r="W119" s="7" t="n"/>
+      <c r="AB119" s="4" t="n"/>
+      <c r="AG119" s="4" t="n"/>
+      <c r="AL119" s="4" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -8282,8 +8269,8 @@
       <c r="N120" s="3" t="n">
         <v>151631</v>
       </c>
-      <c r="O120" t="n">
-        <v>24.25</v>
+      <c r="O120" s="6" t="n">
+        <v>-24.25</v>
       </c>
       <c r="P120" t="n">
         <v>7.25</v>
@@ -8291,12 +8278,17 @@
       <c r="Q120" t="n">
         <v>-69.15000000000009</v>
       </c>
-      <c r="R120" s="4" t="n">
+      <c r="R120" s="7" t="n">
         <v>-24.14999999999986</v>
       </c>
       <c r="S120" t="n">
         <v>76.40000000000009</v>
       </c>
+      <c r="T120" s="6" t="n"/>
+      <c r="W120" s="7" t="n"/>
+      <c r="AB120" s="4" t="n"/>
+      <c r="AG120" s="4" t="n"/>
+      <c r="AL120" s="4" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -8343,8 +8335,8 @@
       <c r="N121" s="3" t="n">
         <v>71137</v>
       </c>
-      <c r="O121" s="5" t="n">
-        <v>-14.44999999999982</v>
+      <c r="O121" t="n">
+        <v>14.44999999999982</v>
       </c>
       <c r="P121" t="n">
         <v>21.34999999999991</v>
@@ -8358,6 +8350,9 @@
       <c r="S121" t="n">
         <v>25</v>
       </c>
+      <c r="Y121" s="5" t="n"/>
+      <c r="AD121" s="5" t="n"/>
+      <c r="AI121" s="5" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -8404,8 +8399,8 @@
       <c r="N122" s="3" t="n">
         <v>54277</v>
       </c>
-      <c r="O122" s="5" t="n">
-        <v>-2.450000000000045</v>
+      <c r="O122" t="n">
+        <v>2.450000000000045</v>
       </c>
       <c r="P122" t="n">
         <v>12.90000000000009</v>
@@ -8419,6 +8414,9 @@
       <c r="S122" t="n">
         <v>18</v>
       </c>
+      <c r="Y122" s="5" t="n"/>
+      <c r="AD122" s="5" t="n"/>
+      <c r="AI122" s="5" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -8465,8 +8463,8 @@
       <c r="N123" s="3" t="n">
         <v>64556</v>
       </c>
-      <c r="O123" t="n">
-        <v>6.450000000000045</v>
+      <c r="O123" s="6" t="n">
+        <v>-6.450000000000045</v>
       </c>
       <c r="P123" t="n">
         <v>5.700000000000045</v>
@@ -8474,12 +8472,17 @@
       <c r="Q123" t="n">
         <v>-11.95000000000005</v>
       </c>
-      <c r="R123" s="4" t="n">
+      <c r="R123" s="7" t="n">
         <v>-11.25</v>
       </c>
       <c r="S123" t="n">
         <v>17.65000000000009</v>
       </c>
+      <c r="T123" s="6" t="n"/>
+      <c r="W123" s="7" t="n"/>
+      <c r="AB123" s="4" t="n"/>
+      <c r="AG123" s="4" t="n"/>
+      <c r="AL123" s="4" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -8587,8 +8590,8 @@
       <c r="N125" s="3" t="n">
         <v>71823</v>
       </c>
-      <c r="O125" t="n">
-        <v>6.449999999999818</v>
+      <c r="O125" s="6" t="n">
+        <v>-6.449999999999818</v>
       </c>
       <c r="P125" t="n">
         <v>6.5</v>
@@ -8596,12 +8599,17 @@
       <c r="Q125" t="n">
         <v>-12.34999999999991</v>
       </c>
-      <c r="R125" s="4" t="n">
+      <c r="R125" s="7" t="n">
         <v>-5.25</v>
       </c>
       <c r="S125" t="n">
         <v>18.84999999999991</v>
       </c>
+      <c r="T125" s="6" t="n"/>
+      <c r="W125" s="7" t="n"/>
+      <c r="AB125" s="4" t="n"/>
+      <c r="AG125" s="4" t="n"/>
+      <c r="AL125" s="4" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -8648,8 +8656,8 @@
       <c r="N126" s="3" t="n">
         <v>91998</v>
       </c>
-      <c r="O126" t="n">
-        <v>29.5</v>
+      <c r="O126" s="6" t="n">
+        <v>-29.5</v>
       </c>
       <c r="P126" t="n">
         <v>0</v>
@@ -8657,12 +8665,17 @@
       <c r="Q126" t="n">
         <v>-41.70000000000005</v>
       </c>
-      <c r="R126" s="4" t="n">
+      <c r="R126" s="7" t="n">
         <v>-15.54999999999995</v>
       </c>
       <c r="S126" t="n">
         <v>41.70000000000005</v>
       </c>
+      <c r="T126" s="6" t="n"/>
+      <c r="W126" s="7" t="n"/>
+      <c r="AB126" s="4" t="n"/>
+      <c r="AG126" s="4" t="n"/>
+      <c r="AL126" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
